--- a/biology/Botanique/Hottonia_inflata/Hottonia_inflata.xlsx
+++ b/biology/Botanique/Hottonia_inflata/Hottonia_inflata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hottonie enflée
-Hottonia inflata, la Hottonie enflée[1], est une espèce de plantes à fleurs aquatiques de la famille des Primulaceae, répartie sur la moitié sud-est des États-Unis.
+Hottonia inflata, la Hottonie enflée, est une espèce de plantes à fleurs aquatiques de la famille des Primulaceae, répartie sur la moitié sud-est des États-Unis.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante herbacée[1] aux tiges longues de 30 à 50 cm, aux feuilles largement espacées proximalement, devenant groupées à verticillées près de l'inflorescence ; leur limbe est long de 1 à 8 cm[2].
-Les inflorescences sont avec rachis (rayons) et pédoncule gonflés. Les fleurs ont le calice long de 3 à 10 mm, plus long que la corolle, blanche, longue de 3 à 6 mm. Les fruits sont des capsules de 1,5 à 3 mm de long. Les graines mesurent 0,4 à 0,6 mm. La ploïdie est de 2n = 22[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante herbacée aux tiges longues de 30 à 50 cm, aux feuilles largement espacées proximalement, devenant groupées à verticillées près de l'inflorescence ; leur limbe est long de 1 à 8 cm.
+Les inflorescences sont avec rachis (rayons) et pédoncule gonflés. Les fleurs ont le calice long de 3 à 10 mm, plus long que la corolle, blanche, longue de 3 à 6 mm. Les fruits sont des capsules de 1,5 à 3 mm de long. Les graines mesurent 0,4 à 0,6 mm. La ploïdie est de 2n = 22.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la trouve dans la moitié Sud-Est des États-Unis[3]. La floraison est estivale. L'espèce pousse dans les mares, les marécages, les cours d'eau, bras morts tranquilles, jusqu'à 200 m d'altitude[2].
-Hottonia inflata a été signalée dans l'Île-du-Prince-Édouard, mais il s'agissait très probablement d'un vagabond occasionnel ; aucun spécimen n'est connu et il n'a pas été revu depuis. Aucun spécimen n'a été trouvé pour justifier les rapports de présence de H. inflata en Floride. L'espèce est inscrite sur la liste des espèces menacées ou en danger dans certains états et elle a probablement disparu de Pennsylvanie, où elle a été collectée pour la dernière fois en 1931[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la trouve dans la moitié Sud-Est des États-Unis. La floraison est estivale. L'espèce pousse dans les mares, les marécages, les cours d'eau, bras morts tranquilles, jusqu'à 200 m d'altitude.
+Hottonia inflata a été signalée dans l'Île-du-Prince-Édouard, mais il s'agissait très probablement d'un vagabond occasionnel ; aucun spécimen n'est connu et il n'a pas été revu depuis. Aucun spécimen n'a été trouvé pour justifier les rapports de présence de H. inflata en Floride. L'espèce est inscrite sur la liste des espèces menacées ou en danger dans certains états et elle a probablement disparu de Pennsylvanie, où elle a été collectée pour la dernière fois en 1931.
 </t>
         </is>
       </c>
